--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3992.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3992.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.35395408570985</v>
+        <v>1.016554117202759</v>
       </c>
       <c r="B1">
-        <v>2.572275778661017</v>
+        <v>1.721224308013916</v>
       </c>
       <c r="C1">
-        <v>3.463649643714657</v>
+        <v>4.565145969390869</v>
       </c>
       <c r="D1">
-        <v>4.108052960907361</v>
+        <v>5.298650741577148</v>
       </c>
       <c r="E1">
-        <v>1.47312482519796</v>
+        <v>1.618422508239746</v>
       </c>
     </row>
   </sheetData>
